--- a/demoflask/uploads/products.xlsx
+++ b/demoflask/uploads/products.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aadit\OneDrive\Desktop\demo\demoflask\uploads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\E-CART-SELLER\demoflask\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62991DC0-12D5-4CBC-8EC4-3C1A2D4F560A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959A40E0-57D2-4ED9-9EAD-270EA77D5CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Title</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>Currency</t>
+  </si>
+  <si>
+    <t>Expiry</t>
   </si>
 </sst>
 </file>
@@ -432,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -444,7 +447,7 @@
     <col min="2" max="2" width="92.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -480,6 +483,9 @@
       </c>
       <c r="L1" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
